--- a/data/outputs/数学期刊(上)_altmetric/40.Boundary Value Problems.xlsx
+++ b/data/outputs/数学期刊(上)_altmetric/40.Boundary Value Problems.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG245"/>
+  <dimension ref="A1:AH245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,6 +532,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -649,6 +654,9 @@
       <c r="AG2" t="n">
         <v>0</v>
       </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -766,6 +774,9 @@
       <c r="AG3" t="n">
         <v>0</v>
       </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -881,6 +892,9 @@
       <c r="AG4" t="n">
         <v>0</v>
       </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -998,6 +1012,9 @@
       <c r="AG5" t="n">
         <v>0</v>
       </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1115,6 +1132,9 @@
       <c r="AG6" t="n">
         <v>0</v>
       </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1232,6 +1252,9 @@
       <c r="AG7" t="n">
         <v>0</v>
       </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1349,6 +1372,9 @@
       <c r="AG8" t="n">
         <v>0</v>
       </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1466,6 +1492,9 @@
       <c r="AG9" t="n">
         <v>0</v>
       </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1583,6 +1612,9 @@
       <c r="AG10" t="n">
         <v>0</v>
       </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1700,6 +1732,9 @@
       <c r="AG11" t="n">
         <v>0</v>
       </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1815,6 +1850,9 @@
       <c r="AG12" t="n">
         <v>0</v>
       </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1930,6 +1968,9 @@
       <c r="AG13" t="n">
         <v>0</v>
       </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2047,6 +2088,9 @@
       <c r="AG14" t="n">
         <v>0</v>
       </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2162,6 +2206,9 @@
       <c r="AG15" t="n">
         <v>0</v>
       </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2277,6 +2324,9 @@
       <c r="AG16" t="n">
         <v>0</v>
       </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2394,6 +2444,9 @@
       <c r="AG17" t="n">
         <v>0</v>
       </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2511,6 +2564,9 @@
       <c r="AG18" t="n">
         <v>0</v>
       </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2626,6 +2682,9 @@
       <c r="AG19" t="n">
         <v>0</v>
       </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2743,6 +2802,9 @@
       <c r="AG20" t="n">
         <v>0</v>
       </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2860,6 +2922,9 @@
       <c r="AG21" t="n">
         <v>0</v>
       </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2975,6 +3040,9 @@
       <c r="AG22" t="n">
         <v>0</v>
       </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3092,6 +3160,9 @@
       <c r="AG23" t="n">
         <v>0</v>
       </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3207,6 +3278,9 @@
       <c r="AG24" t="n">
         <v>0</v>
       </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3324,6 +3398,9 @@
       <c r="AG25" t="n">
         <v>0</v>
       </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3439,6 +3516,9 @@
       <c r="AG26" t="n">
         <v>0</v>
       </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3556,6 +3636,9 @@
       <c r="AG27" t="n">
         <v>0</v>
       </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3673,6 +3756,9 @@
       <c r="AG28" t="n">
         <v>0</v>
       </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3790,6 +3876,9 @@
       <c r="AG29" t="n">
         <v>0</v>
       </c>
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3905,6 +3994,9 @@
       <c r="AG30" t="n">
         <v>0</v>
       </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4020,6 +4112,9 @@
       <c r="AG31" t="n">
         <v>0</v>
       </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4137,6 +4232,9 @@
       <c r="AG32" t="n">
         <v>0</v>
       </c>
+      <c r="AH32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4254,6 +4352,9 @@
       <c r="AG33" t="n">
         <v>0</v>
       </c>
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4371,6 +4472,9 @@
       <c r="AG34" t="n">
         <v>0</v>
       </c>
+      <c r="AH34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4488,6 +4592,9 @@
       <c r="AG35" t="n">
         <v>0</v>
       </c>
+      <c r="AH35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4607,6 +4714,9 @@
       <c r="AG36" t="n">
         <v>0</v>
       </c>
+      <c r="AH36" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4724,6 +4834,9 @@
       <c r="AG37" t="n">
         <v>0</v>
       </c>
+      <c r="AH37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4841,6 +4954,9 @@
       <c r="AG38" t="n">
         <v>0</v>
       </c>
+      <c r="AH38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4956,6 +5072,9 @@
       <c r="AG39" t="n">
         <v>0</v>
       </c>
+      <c r="AH39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5073,6 +5192,9 @@
       <c r="AG40" t="n">
         <v>0</v>
       </c>
+      <c r="AH40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5190,6 +5312,9 @@
       <c r="AG41" t="n">
         <v>0</v>
       </c>
+      <c r="AH41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5307,6 +5432,9 @@
       <c r="AG42" t="n">
         <v>0</v>
       </c>
+      <c r="AH42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5424,6 +5552,9 @@
       <c r="AG43" t="n">
         <v>0</v>
       </c>
+      <c r="AH43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5541,6 +5672,9 @@
       <c r="AG44" t="n">
         <v>0</v>
       </c>
+      <c r="AH44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5658,6 +5792,9 @@
       <c r="AG45" t="n">
         <v>0</v>
       </c>
+      <c r="AH45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5771,6 +5908,9 @@
         <v>0</v>
       </c>
       <c r="AG46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5888,6 +6028,9 @@
       <c r="AG47" t="n">
         <v>0</v>
       </c>
+      <c r="AH47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6001,6 +6144,9 @@
       <c r="AG48" t="n">
         <v>0</v>
       </c>
+      <c r="AH48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6118,6 +6264,9 @@
       <c r="AG49" t="n">
         <v>0</v>
       </c>
+      <c r="AH49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6235,6 +6384,9 @@
       <c r="AG50" t="n">
         <v>0</v>
       </c>
+      <c r="AH50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6352,6 +6504,9 @@
       <c r="AG51" t="n">
         <v>0</v>
       </c>
+      <c r="AH51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6469,6 +6624,9 @@
       <c r="AG52" t="n">
         <v>0</v>
       </c>
+      <c r="AH52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6584,6 +6742,9 @@
         <v>0</v>
       </c>
       <c r="AG53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6701,6 +6862,9 @@
       <c r="AG54" t="n">
         <v>0</v>
       </c>
+      <c r="AH54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6818,6 +6982,9 @@
       <c r="AG55" t="n">
         <v>0</v>
       </c>
+      <c r="AH55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6935,6 +7102,9 @@
       <c r="AG56" t="n">
         <v>0</v>
       </c>
+      <c r="AH56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7052,6 +7222,9 @@
       <c r="AG57" t="n">
         <v>0</v>
       </c>
+      <c r="AH57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7169,6 +7342,9 @@
       <c r="AG58" t="n">
         <v>0</v>
       </c>
+      <c r="AH58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7286,6 +7462,9 @@
       <c r="AG59" t="n">
         <v>0</v>
       </c>
+      <c r="AH59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7403,6 +7582,9 @@
       <c r="AG60" t="n">
         <v>0</v>
       </c>
+      <c r="AH60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7520,6 +7702,9 @@
       <c r="AG61" t="n">
         <v>0</v>
       </c>
+      <c r="AH61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7637,6 +7822,9 @@
       <c r="AG62" t="n">
         <v>0</v>
       </c>
+      <c r="AH62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7754,6 +7942,9 @@
       <c r="AG63" t="n">
         <v>0</v>
       </c>
+      <c r="AH63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7869,6 +8060,9 @@
       <c r="AG64" t="n">
         <v>0</v>
       </c>
+      <c r="AH64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7986,6 +8180,9 @@
       <c r="AG65" t="n">
         <v>0</v>
       </c>
+      <c r="AH65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8103,6 +8300,9 @@
       <c r="AG66" t="n">
         <v>0</v>
       </c>
+      <c r="AH66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8218,6 +8418,9 @@
       <c r="AG67" t="n">
         <v>0</v>
       </c>
+      <c r="AH67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8335,6 +8538,9 @@
       <c r="AG68" t="n">
         <v>0</v>
       </c>
+      <c r="AH68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8452,6 +8658,9 @@
       <c r="AG69" t="n">
         <v>0</v>
       </c>
+      <c r="AH69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8569,6 +8778,9 @@
       <c r="AG70" t="n">
         <v>0</v>
       </c>
+      <c r="AH70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8684,6 +8896,9 @@
       <c r="AG71" t="n">
         <v>0</v>
       </c>
+      <c r="AH71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8801,6 +9016,9 @@
       <c r="AG72" t="n">
         <v>0</v>
       </c>
+      <c r="AH72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8918,6 +9136,9 @@
       <c r="AG73" t="n">
         <v>0</v>
       </c>
+      <c r="AH73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9035,6 +9256,9 @@
       <c r="AG74" t="n">
         <v>0</v>
       </c>
+      <c r="AH74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -9152,6 +9376,9 @@
       <c r="AG75" t="n">
         <v>0</v>
       </c>
+      <c r="AH75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -9269,6 +9496,9 @@
       <c r="AG76" t="n">
         <v>0</v>
       </c>
+      <c r="AH76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -9386,6 +9616,9 @@
       <c r="AG77" t="n">
         <v>0</v>
       </c>
+      <c r="AH77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -9503,6 +9736,9 @@
       <c r="AG78" t="n">
         <v>0</v>
       </c>
+      <c r="AH78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -9620,6 +9856,9 @@
       <c r="AG79" t="n">
         <v>0</v>
       </c>
+      <c r="AH79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -9737,6 +9976,9 @@
       <c r="AG80" t="n">
         <v>0</v>
       </c>
+      <c r="AH80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -9854,6 +10096,9 @@
       <c r="AG81" t="n">
         <v>0</v>
       </c>
+      <c r="AH81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -9969,6 +10214,9 @@
       <c r="AG82" t="n">
         <v>0</v>
       </c>
+      <c r="AH82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -10086,6 +10334,9 @@
       <c r="AG83" t="n">
         <v>0</v>
       </c>
+      <c r="AH83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -10201,6 +10452,9 @@
       <c r="AG84" t="n">
         <v>0</v>
       </c>
+      <c r="AH84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -10318,6 +10572,9 @@
       <c r="AG85" t="n">
         <v>0</v>
       </c>
+      <c r="AH85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -10435,6 +10692,9 @@
       <c r="AG86" t="n">
         <v>0</v>
       </c>
+      <c r="AH86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -10552,6 +10812,9 @@
       <c r="AG87" t="n">
         <v>0</v>
       </c>
+      <c r="AH87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -10669,6 +10932,9 @@
       <c r="AG88" t="n">
         <v>0</v>
       </c>
+      <c r="AH88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -10786,6 +11052,9 @@
       <c r="AG89" t="n">
         <v>0</v>
       </c>
+      <c r="AH89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -10901,6 +11170,9 @@
         <v>0</v>
       </c>
       <c r="AG90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11018,6 +11290,9 @@
       <c r="AG91" t="n">
         <v>0</v>
       </c>
+      <c r="AH91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -11135,6 +11410,9 @@
       <c r="AG92" t="n">
         <v>0</v>
       </c>
+      <c r="AH92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -11254,6 +11532,9 @@
       <c r="AG93" t="n">
         <v>0</v>
       </c>
+      <c r="AH93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -11373,6 +11654,9 @@
       <c r="AG94" t="n">
         <v>0</v>
       </c>
+      <c r="AH94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -11492,6 +11776,9 @@
       <c r="AG95" t="n">
         <v>0</v>
       </c>
+      <c r="AH95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -11611,6 +11898,9 @@
       <c r="AG96" t="n">
         <v>0</v>
       </c>
+      <c r="AH96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -11728,6 +12018,9 @@
       <c r="AG97" t="n">
         <v>0</v>
       </c>
+      <c r="AH97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -11845,6 +12138,9 @@
       <c r="AG98" t="n">
         <v>0</v>
       </c>
+      <c r="AH98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -11962,6 +12258,9 @@
       <c r="AG99" t="n">
         <v>0</v>
       </c>
+      <c r="AH99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -12081,6 +12380,9 @@
       <c r="AG100" t="n">
         <v>0</v>
       </c>
+      <c r="AH100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -12200,6 +12502,9 @@
       <c r="AG101" t="n">
         <v>0</v>
       </c>
+      <c r="AH101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -12319,6 +12624,9 @@
       <c r="AG102" t="n">
         <v>0</v>
       </c>
+      <c r="AH102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -12438,6 +12746,9 @@
       <c r="AG103" t="n">
         <v>0</v>
       </c>
+      <c r="AH103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -12557,6 +12868,9 @@
       <c r="AG104" t="n">
         <v>0</v>
       </c>
+      <c r="AH104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -12676,6 +12990,9 @@
       <c r="AG105" t="n">
         <v>0</v>
       </c>
+      <c r="AH105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -12793,6 +13110,9 @@
       <c r="AG106" t="n">
         <v>0</v>
       </c>
+      <c r="AH106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -12912,6 +13232,9 @@
       <c r="AG107" t="n">
         <v>0</v>
       </c>
+      <c r="AH107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -13033,6 +13356,9 @@
       <c r="AG108" t="n">
         <v>0</v>
       </c>
+      <c r="AH108" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -13152,6 +13478,9 @@
       <c r="AG109" t="n">
         <v>0</v>
       </c>
+      <c r="AH109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -13271,6 +13600,9 @@
       <c r="AG110" t="n">
         <v>0</v>
       </c>
+      <c r="AH110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -13388,6 +13720,9 @@
       <c r="AG111" t="n">
         <v>0</v>
       </c>
+      <c r="AH111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -13507,6 +13842,9 @@
       <c r="AG112" t="n">
         <v>0</v>
       </c>
+      <c r="AH112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -13626,6 +13964,9 @@
       <c r="AG113" t="n">
         <v>0</v>
       </c>
+      <c r="AH113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -13743,6 +14084,9 @@
       <c r="AG114" t="n">
         <v>0</v>
       </c>
+      <c r="AH114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -13862,6 +14206,9 @@
       <c r="AG115" t="n">
         <v>0</v>
       </c>
+      <c r="AH115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -13979,6 +14326,9 @@
       <c r="AG116" t="n">
         <v>0</v>
       </c>
+      <c r="AH116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -14098,6 +14448,9 @@
       <c r="AG117" t="n">
         <v>0</v>
       </c>
+      <c r="AH117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -14215,6 +14568,9 @@
       <c r="AG118" t="n">
         <v>0</v>
       </c>
+      <c r="AH118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -14334,6 +14690,9 @@
       <c r="AG119" t="n">
         <v>0</v>
       </c>
+      <c r="AH119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -14453,6 +14812,9 @@
       <c r="AG120" t="n">
         <v>0</v>
       </c>
+      <c r="AH120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -14572,6 +14934,9 @@
       <c r="AG121" t="n">
         <v>0</v>
       </c>
+      <c r="AH121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -14691,6 +15056,9 @@
       <c r="AG122" t="n">
         <v>0</v>
       </c>
+      <c r="AH122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -14810,6 +15178,9 @@
       <c r="AG123" t="n">
         <v>0</v>
       </c>
+      <c r="AH123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -14929,6 +15300,9 @@
       <c r="AG124" t="n">
         <v>0</v>
       </c>
+      <c r="AH124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -15048,6 +15422,9 @@
       <c r="AG125" t="n">
         <v>0</v>
       </c>
+      <c r="AH125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -15165,6 +15542,9 @@
       <c r="AG126" t="n">
         <v>0</v>
       </c>
+      <c r="AH126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -15284,6 +15664,9 @@
       <c r="AG127" t="n">
         <v>0</v>
       </c>
+      <c r="AH127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -15401,6 +15784,9 @@
       <c r="AG128" t="n">
         <v>0</v>
       </c>
+      <c r="AH128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -15518,6 +15904,9 @@
       <c r="AG129" t="n">
         <v>0</v>
       </c>
+      <c r="AH129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -15637,6 +16026,9 @@
       <c r="AG130" t="n">
         <v>0</v>
       </c>
+      <c r="AH130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -15756,6 +16148,9 @@
       <c r="AG131" t="n">
         <v>0</v>
       </c>
+      <c r="AH131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -15873,6 +16268,9 @@
       <c r="AG132" t="n">
         <v>0</v>
       </c>
+      <c r="AH132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -15990,6 +16388,9 @@
       <c r="AG133" t="n">
         <v>0</v>
       </c>
+      <c r="AH133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -16107,6 +16508,9 @@
       <c r="AG134" t="n">
         <v>0</v>
       </c>
+      <c r="AH134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -16226,6 +16630,9 @@
       <c r="AG135" t="n">
         <v>0</v>
       </c>
+      <c r="AH135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -16345,6 +16752,9 @@
       <c r="AG136" t="n">
         <v>0</v>
       </c>
+      <c r="AH136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -16464,6 +16874,9 @@
       <c r="AG137" t="n">
         <v>0</v>
       </c>
+      <c r="AH137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -16583,6 +16996,9 @@
       <c r="AG138" t="n">
         <v>0</v>
       </c>
+      <c r="AH138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -16702,6 +17118,9 @@
       <c r="AG139" t="n">
         <v>0</v>
       </c>
+      <c r="AH139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -16819,6 +17238,9 @@
         <v>0</v>
       </c>
       <c r="AG140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16934,6 +17356,9 @@
       <c r="AG141" t="n">
         <v>0</v>
       </c>
+      <c r="AH141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -17053,6 +17478,9 @@
       <c r="AG142" t="n">
         <v>0</v>
       </c>
+      <c r="AH142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -17168,6 +17596,9 @@
         <v>0</v>
       </c>
       <c r="AG143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17287,6 +17718,9 @@
       <c r="AG144" t="n">
         <v>0</v>
       </c>
+      <c r="AH144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -17402,6 +17836,9 @@
       <c r="AG145" t="n">
         <v>0</v>
       </c>
+      <c r="AH145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -17519,6 +17956,9 @@
       <c r="AG146" t="n">
         <v>0</v>
       </c>
+      <c r="AH146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -17634,6 +18074,9 @@
       <c r="AG147" t="n">
         <v>0</v>
       </c>
+      <c r="AH147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -17751,6 +18194,9 @@
       <c r="AG148" t="n">
         <v>0</v>
       </c>
+      <c r="AH148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -17868,6 +18314,9 @@
       <c r="AG149" t="n">
         <v>0</v>
       </c>
+      <c r="AH149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -17985,6 +18434,9 @@
       <c r="AG150" t="n">
         <v>0</v>
       </c>
+      <c r="AH150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -18100,6 +18552,9 @@
       <c r="AG151" t="n">
         <v>0</v>
       </c>
+      <c r="AH151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -18217,6 +18672,9 @@
       <c r="AG152" t="n">
         <v>0</v>
       </c>
+      <c r="AH152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -18332,6 +18790,9 @@
       <c r="AG153" t="n">
         <v>0</v>
       </c>
+      <c r="AH153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -18449,6 +18910,9 @@
       <c r="AG154" t="n">
         <v>0</v>
       </c>
+      <c r="AH154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -18566,6 +19030,9 @@
       <c r="AG155" t="n">
         <v>0</v>
       </c>
+      <c r="AH155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -18683,6 +19150,9 @@
       <c r="AG156" t="n">
         <v>0</v>
       </c>
+      <c r="AH156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -18800,6 +19270,9 @@
       <c r="AG157" t="n">
         <v>0</v>
       </c>
+      <c r="AH157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -18917,6 +19390,9 @@
       <c r="AG158" t="n">
         <v>0</v>
       </c>
+      <c r="AH158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -19034,6 +19510,9 @@
       <c r="AG159" t="n">
         <v>0</v>
       </c>
+      <c r="AH159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -19149,6 +19628,9 @@
       <c r="AG160" t="n">
         <v>0</v>
       </c>
+      <c r="AH160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -19264,6 +19746,9 @@
       <c r="AG161" t="n">
         <v>0</v>
       </c>
+      <c r="AH161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -19381,6 +19866,9 @@
       <c r="AG162" t="n">
         <v>0</v>
       </c>
+      <c r="AH162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -19498,6 +19986,9 @@
       <c r="AG163" t="n">
         <v>0</v>
       </c>
+      <c r="AH163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -19615,6 +20106,9 @@
       <c r="AG164" t="n">
         <v>0</v>
       </c>
+      <c r="AH164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -19730,6 +20224,9 @@
       <c r="AG165" t="n">
         <v>0</v>
       </c>
+      <c r="AH165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -19847,6 +20344,9 @@
       <c r="AG166" t="n">
         <v>0</v>
       </c>
+      <c r="AH166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -19964,6 +20464,9 @@
       <c r="AG167" t="n">
         <v>0</v>
       </c>
+      <c r="AH167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -20079,6 +20582,9 @@
         <v>0</v>
       </c>
       <c r="AG168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20196,6 +20702,9 @@
       <c r="AG169" t="n">
         <v>0</v>
       </c>
+      <c r="AH169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -20311,6 +20820,9 @@
       <c r="AG170" t="n">
         <v>0</v>
       </c>
+      <c r="AH170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -20426,6 +20938,9 @@
       <c r="AG171" t="n">
         <v>0</v>
       </c>
+      <c r="AH171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -20541,6 +21056,9 @@
       <c r="AG172" t="n">
         <v>0</v>
       </c>
+      <c r="AH172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -20656,6 +21174,9 @@
       <c r="AG173" t="n">
         <v>0</v>
       </c>
+      <c r="AH173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -20771,6 +21292,9 @@
       <c r="AG174" t="n">
         <v>0</v>
       </c>
+      <c r="AH174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -20886,6 +21410,9 @@
       <c r="AG175" t="n">
         <v>0</v>
       </c>
+      <c r="AH175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -21001,6 +21528,9 @@
       <c r="AG176" t="n">
         <v>0</v>
       </c>
+      <c r="AH176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -21112,6 +21642,9 @@
         <v>0</v>
       </c>
       <c r="AG177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21229,6 +21762,9 @@
       <c r="AG178" t="n">
         <v>0</v>
       </c>
+      <c r="AH178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -21346,6 +21882,9 @@
       <c r="AG179" t="n">
         <v>0</v>
       </c>
+      <c r="AH179" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -21461,6 +22000,9 @@
       <c r="AG180" t="n">
         <v>0</v>
       </c>
+      <c r="AH180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -21576,6 +22118,9 @@
       <c r="AG181" t="n">
         <v>0</v>
       </c>
+      <c r="AH181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -21691,6 +22236,9 @@
       <c r="AG182" t="n">
         <v>0</v>
       </c>
+      <c r="AH182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -21806,6 +22354,9 @@
         <v>0</v>
       </c>
       <c r="AG183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21923,6 +22474,9 @@
       <c r="AG184" t="n">
         <v>0</v>
       </c>
+      <c r="AH184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -22038,6 +22592,9 @@
       <c r="AG185" t="n">
         <v>0</v>
       </c>
+      <c r="AH185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -22151,6 +22708,9 @@
       <c r="AG186" t="n">
         <v>0</v>
       </c>
+      <c r="AH186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -22264,6 +22824,9 @@
       <c r="AG187" t="n">
         <v>0</v>
       </c>
+      <c r="AH187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -22377,6 +22940,9 @@
       <c r="AG188" t="n">
         <v>0</v>
       </c>
+      <c r="AH188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -22490,6 +23056,9 @@
       <c r="AG189" t="n">
         <v>0</v>
       </c>
+      <c r="AH189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -22605,6 +23174,9 @@
       <c r="AG190" t="n">
         <v>0</v>
       </c>
+      <c r="AH190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -22720,6 +23292,9 @@
       <c r="AG191" t="n">
         <v>0</v>
       </c>
+      <c r="AH191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -22835,6 +23410,9 @@
         <v>0</v>
       </c>
       <c r="AG192" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22952,6 +23530,9 @@
       <c r="AG193" t="n">
         <v>0</v>
       </c>
+      <c r="AH193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -23067,6 +23648,9 @@
       <c r="AG194" t="n">
         <v>0</v>
       </c>
+      <c r="AH194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -23180,6 +23764,9 @@
       <c r="AG195" t="n">
         <v>0</v>
       </c>
+      <c r="AH195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -23295,6 +23882,9 @@
       <c r="AG196" t="n">
         <v>0</v>
       </c>
+      <c r="AH196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -23410,6 +24000,9 @@
         <v>0</v>
       </c>
       <c r="AG197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH197" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23527,6 +24120,9 @@
       <c r="AG198" t="n">
         <v>0</v>
       </c>
+      <c r="AH198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -23640,6 +24236,9 @@
       <c r="AG199" t="n">
         <v>0</v>
       </c>
+      <c r="AH199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -23757,6 +24356,9 @@
       <c r="AG200" t="n">
         <v>0</v>
       </c>
+      <c r="AH200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -23872,6 +24474,9 @@
         <v>0</v>
       </c>
       <c r="AG201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23989,6 +24594,9 @@
       <c r="AG202" t="n">
         <v>0</v>
       </c>
+      <c r="AH202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -24106,6 +24714,9 @@
       <c r="AG203" t="n">
         <v>0</v>
       </c>
+      <c r="AH203" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -24221,6 +24832,9 @@
       <c r="AG204" t="n">
         <v>0</v>
       </c>
+      <c r="AH204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -24336,6 +24950,9 @@
       <c r="AG205" t="n">
         <v>0</v>
       </c>
+      <c r="AH205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -24451,6 +25068,9 @@
       <c r="AG206" t="n">
         <v>0</v>
       </c>
+      <c r="AH206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -24564,6 +25184,9 @@
         <v>0</v>
       </c>
       <c r="AG207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24679,6 +25302,9 @@
       <c r="AG208" t="n">
         <v>0</v>
       </c>
+      <c r="AH208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -24792,6 +25418,9 @@
       <c r="AG209" t="n">
         <v>0</v>
       </c>
+      <c r="AH209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -24905,6 +25534,9 @@
       <c r="AG210" t="n">
         <v>0</v>
       </c>
+      <c r="AH210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -25020,6 +25652,9 @@
       <c r="AG211" t="n">
         <v>0</v>
       </c>
+      <c r="AH211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -25133,6 +25768,9 @@
       <c r="AG212" t="n">
         <v>0</v>
       </c>
+      <c r="AH212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -25248,6 +25886,9 @@
       <c r="AG213" t="n">
         <v>0</v>
       </c>
+      <c r="AH213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -25363,6 +26004,9 @@
       <c r="AG214" t="n">
         <v>0</v>
       </c>
+      <c r="AH214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -25478,6 +26122,9 @@
       <c r="AG215" t="n">
         <v>0</v>
       </c>
+      <c r="AH215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -25593,6 +26240,9 @@
       <c r="AG216" t="n">
         <v>0</v>
       </c>
+      <c r="AH216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -25708,6 +26358,9 @@
       <c r="AG217" t="n">
         <v>0</v>
       </c>
+      <c r="AH217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -25823,6 +26476,9 @@
       <c r="AG218" t="n">
         <v>0</v>
       </c>
+      <c r="AH218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -25936,6 +26592,9 @@
       <c r="AG219" t="n">
         <v>0</v>
       </c>
+      <c r="AH219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -26051,6 +26710,9 @@
       <c r="AG220" t="n">
         <v>0</v>
       </c>
+      <c r="AH220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -26166,6 +26828,9 @@
       <c r="AG221" t="n">
         <v>0</v>
       </c>
+      <c r="AH221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -26279,6 +26944,9 @@
       <c r="AG222" t="n">
         <v>0</v>
       </c>
+      <c r="AH222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -26394,6 +27062,9 @@
       <c r="AG223" t="n">
         <v>0</v>
       </c>
+      <c r="AH223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -26509,6 +27180,9 @@
       <c r="AG224" t="n">
         <v>0</v>
       </c>
+      <c r="AH224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -26624,6 +27298,9 @@
       <c r="AG225" t="n">
         <v>0</v>
       </c>
+      <c r="AH225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -26741,6 +27418,9 @@
       <c r="AG226" t="n">
         <v>0</v>
       </c>
+      <c r="AH226" t="n">
+        <v>6.25</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -26856,6 +27536,9 @@
       <c r="AG227" t="n">
         <v>0</v>
       </c>
+      <c r="AH227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -26971,6 +27654,9 @@
       <c r="AG228" t="n">
         <v>0</v>
       </c>
+      <c r="AH228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -27086,6 +27772,9 @@
       <c r="AG229" t="n">
         <v>0</v>
       </c>
+      <c r="AH229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -27201,6 +27890,9 @@
       <c r="AG230" t="n">
         <v>0</v>
       </c>
+      <c r="AH230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -27318,6 +28010,9 @@
       <c r="AG231" t="n">
         <v>0</v>
       </c>
+      <c r="AH231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -27433,6 +28128,9 @@
         <v>0</v>
       </c>
       <c r="AG232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH232" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27550,6 +28248,9 @@
       <c r="AG233" t="n">
         <v>0</v>
       </c>
+      <c r="AH233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -27665,6 +28366,9 @@
       <c r="AG234" t="n">
         <v>0</v>
       </c>
+      <c r="AH234" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -27780,6 +28484,9 @@
       <c r="AG235" t="n">
         <v>0</v>
       </c>
+      <c r="AH235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -27895,6 +28602,9 @@
       <c r="AG236" t="n">
         <v>0</v>
       </c>
+      <c r="AH236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -28008,6 +28718,9 @@
       <c r="AG237" t="n">
         <v>0</v>
       </c>
+      <c r="AH237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -28123,6 +28836,9 @@
       <c r="AG238" t="n">
         <v>0</v>
       </c>
+      <c r="AH238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -28236,6 +28952,9 @@
       <c r="AG239" t="n">
         <v>0</v>
       </c>
+      <c r="AH239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -28351,6 +29070,9 @@
       <c r="AG240" t="n">
         <v>0</v>
       </c>
+      <c r="AH240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -28466,6 +29188,9 @@
       <c r="AG241" t="n">
         <v>0</v>
       </c>
+      <c r="AH241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -28581,6 +29306,9 @@
       <c r="AG242" t="n">
         <v>0</v>
       </c>
+      <c r="AH242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -28696,6 +29424,9 @@
       <c r="AG243" t="n">
         <v>0</v>
       </c>
+      <c r="AH243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -28811,6 +29542,9 @@
       <c r="AG244" t="n">
         <v>0</v>
       </c>
+      <c r="AH244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -28926,6 +29660,9 @@
       <c r="AG245" t="n">
         <v>0</v>
       </c>
+      <c r="AH245" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
